--- a/biology/Microbiologie/Helminthosporium/Helminthosporium.xlsx
+++ b/biology/Microbiologie/Helminthosporium/Helminthosporium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helminthosporium est un genre de champignons ascomycètes de la famille des Pleosporaceae.
 Il renferme un grand nombre d'espèces parasites (voir liste des espèces). On les nomme Drechslera sp. sous la forme conidienne et Pyrenophora sp. ou Cochliobolus sp. sous la forme sexuée. Pour plus de simplicité, toutes les espèces décrites ci-dessous sont regroupées au sein du même genre Helminthosporium.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Helminthosporium avenae : il fait partie avec Fusarium nivale des principaux agents de fonte des semis chez l'avoine
 Helminthosporium carbonum : parasite du maïs mais assez peu fréquent
@@ -553,9 +567,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (5 septembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 septembre 2014) :
 Helminthosporium abietis
 Helminthosporium abutilonis
 Helminthosporium acaciae
@@ -773,7 +789,7 @@
 Helminthosporium xanthosomatis
 Helminthosporium xylopiifolii
 Helminthosporium zombaense
-Selon Index Fungorum                                      (5 septembre 2014)[2] :
+Selon Index Fungorum                                      (5 septembre 2014) :
 Helminthosporium abietis W.B. Cooke &amp; C.G. Shaw 1952
 Helminthosporium absinthii Peck 1878
 Helminthosporium abutilonis (Tropova) Khokhr. 1956
@@ -919,9 +935,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 septembre 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 septembre 2014) :
 Helminthosporium asterinum
 Helminthosporium chlorophorae
 Helminthosporium nanjingense
@@ -955,7 +973,9 @@
           <t>Méthodes d'analyse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>méthode Malt-agar et potato-dextrose-agar pour l'ensemble des Helminthopsorium
 méthode dite du papier buvard humidifié également pour l'ensemble des Helminthopsorium
@@ -988,7 +1008,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Helminthosporium avenae : mycélium dense gris-vert, conidiophores brun foncé, les spores prennent naissance sur ces conidiophores, les conidies sont de couleur jaune, cylindriques et droites mais arrondies à leurs extrémités
 Helminthosporium carbonum : mycélium vert-foncé, conidiophores droits (seuls ou par petits groupes), les conidies sont brun-olive, courbées, plus larges au milieu et arrondies à leurs extrémités
@@ -1028,7 +1050,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Helminthosporium avenae : sous forme de spores à la surface de la graine ou sous forme de mycélium dans les glumelles et les téguments de la graine
 Helminthosporium carbonum : sous forme de mycélium dans les téguments de la graine
@@ -1069,6 +1093,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1094,7 +1120,9 @@
           <t>Helminthosporioses</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ces différents parasites créent chez les plantes atteintes des maladies nommées génériquement helminthosporioses :
 Helminthosporiose du maïs (via Setosphaeria turcica)
@@ -1128,6 +1156,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
